--- a/notebook/20190723_confirm_cis_display_with_fluorescent_protein/sapphire_lasers_filters.xlsx
+++ b/notebook/20190723_confirm_cis_display_with_fluorescent_protein/sapphire_lasers_filters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion lastEdited="4" lowestEdited="4" rupBuild="3820"/>
   <workbookPr date1904="0"/>
   <bookViews>
-    <workbookView activeTab="0" windowWidth="6440" windowHeight="9390"/>
+    <workbookView activeTab="0" windowWidth="19200" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,14 +22,6 @@
   <calcPr calcMode="auto" iterate="1" iterateCount="100" iterateDelta="0.001"/>
   <webPublishing allowPng="1" css="0" characterSet="UTF-8"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1" count="1">
-  <si>
-    <t>RFP</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -73,11 +65,13 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+      <protection locked="1" hidden="0"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+      <protection locked="1" hidden="0"/>
     </xf>
   </cellXfs>
 </styleSheet>
@@ -91,7 +85,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -155,8 +149,10 @@
           <t>553-577</t>
         </is>
       </c>
-      <c r="D3" t="s">
-        <v>0</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>RFP, SYPRO Orange</t>
+        </is>
       </c>
     </row>
     <row r="4" spans="1:4" ht="13.5">
@@ -175,7 +171,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Cy5,SYPRO Ruby</t>
+          <t>Cy5, SYPRO Ruby</t>
         </is>
       </c>
     </row>

--- a/notebook/20190723_confirm_cis_display_with_fluorescent_protein/sapphire_lasers_filters.xlsx
+++ b/notebook/20190723_confirm_cis_display_with_fluorescent_protein/sapphire_lasers_filters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion lastEdited="4" lowestEdited="4" rupBuild="3820"/>
   <workbookPr date1904="0"/>
   <bookViews>
-    <workbookView activeTab="0" windowWidth="19200" windowHeight="9420"/>
+    <workbookView activeTab="0" windowWidth="12640" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -131,7 +131,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>GFP, FITC</t>
+          <t>GFP, FITC, SYPRO Orange</t>
         </is>
       </c>
     </row>
@@ -151,7 +151,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>RFP, SYPRO Orange</t>
+          <t>RFP</t>
         </is>
       </c>
     </row>
@@ -171,7 +171,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Cy5, SYPRO Ruby</t>
+          <t>Cy5, SYPRO Ruby, Coomassie?</t>
         </is>
       </c>
     </row>

--- a/notebook/20190723_confirm_cis_display_with_fluorescent_protein/sapphire_lasers_filters.xlsx
+++ b/notebook/20190723_confirm_cis_display_with_fluorescent_protein/sapphire_lasers_filters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion lastEdited="4" lowestEdited="4" rupBuild="3820"/>
   <workbookPr date1904="0"/>
   <bookViews>
-    <workbookView activeTab="0" windowWidth="12640" windowHeight="9390"/>
+    <workbookView activeTab="0" windowWidth="16000" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="16384" style="0" width="9.142307692307693"/>
+    <col min="1" max="3" style="0" width="9.142307692307693"/>
+    <col min="4" max="4" style="0" width="18.427463942307693" customWidth="1"/>
+    <col min="5" max="16384" style="0" width="9.142307692307693"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="13.5">
@@ -131,7 +133,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>GFP, FITC, SYPRO Orange</t>
+          <t>GFP, FITC, GelGreen, SYPRO Orange</t>
         </is>
       </c>
     </row>
@@ -151,7 +153,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>RFP</t>
+          <t>Cy3, RFP, SYBR Gold?</t>
         </is>
       </c>
     </row>
